--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,202 +55,211 @@
     <t>disappointment</t>
   </si>
   <si>
-    <t>terrible</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>loose</t>
   </si>
   <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>un</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>lasted</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>fl</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>minutes</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>better</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>put</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
   <si>
     <t>use</t>
@@ -259,21 +268,21 @@
     <t>little</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
@@ -292,12 +301,12 @@
     <t>fantastic</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
@@ -319,24 +328,24 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
@@ -346,31 +355,40 @@
     <t>enjoy</t>
   </si>
   <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoyed</t>
+    <t>fun</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>fun</t>
+    <t>book</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cute</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>playing</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>play</t>
@@ -737,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -806,13 +824,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -824,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -856,13 +874,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -874,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -898,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -927,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <v>0.8518518518518519</v>
@@ -956,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -974,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K6">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -998,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1006,13 +1024,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1024,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K7">
-        <v>0.7849462365591398</v>
+        <v>0.796875</v>
       </c>
       <c r="L7">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1048,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1056,13 +1074,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K8">
-        <v>0.78125</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1098,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1106,13 +1124,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7391304347826086</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1124,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K9">
-        <v>0.7083333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1148,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1156,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1174,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K10">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1198,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1206,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7037037037037037</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1224,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K11">
-        <v>0.5738880918220947</v>
+        <v>0.5710186513629842</v>
       </c>
       <c r="L11">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M11">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1248,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1256,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6881720430107527</v>
+        <v>0.6875</v>
       </c>
       <c r="C12">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1274,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>0.5362318840579711</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1298,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1306,13 +1324,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6857142857142857</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1324,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K13">
-        <v>0.504149377593361</v>
+        <v>0.5062240663900415</v>
       </c>
       <c r="L13">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M13">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1348,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1356,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.676056338028169</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1374,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K14">
-        <v>0.4721311475409836</v>
+        <v>0.4581967213114754</v>
       </c>
       <c r="L14">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="M14">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1398,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>644</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1406,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.671875</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1424,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K15">
-        <v>0.345565749235474</v>
+        <v>0.363914373088685</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M15">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1448,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1456,13 +1474,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6554054054054054</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="C16">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D16">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1474,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K16">
-        <v>0.3433734939759036</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L16">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1498,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1506,13 +1524,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6359223300970874</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C17">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1524,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K17">
-        <v>0.3396226415094339</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1548,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1556,13 +1574,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.631578947368421</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1574,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K18">
-        <v>0.3333333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L18">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1598,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1606,13 +1624,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6050420168067226</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C19">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1624,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K19">
-        <v>0.3166666666666667</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1648,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1656,13 +1674,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5952380952380952</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1677,16 +1695,16 @@
         <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K20">
-        <v>0.2377622377622378</v>
+        <v>0.234375</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1698,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1706,13 +1724,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5636363636363636</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1724,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K21">
-        <v>0.21875</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1748,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1756,13 +1774,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1774,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K22">
-        <v>0.2105263157894737</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
         <v>16</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
       </c>
       <c r="N22">
         <v>0.9399999999999999</v>
@@ -1798,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1806,13 +1824,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1824,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K23">
-        <v>0.1839080459770115</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1848,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1856,13 +1874,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5159420289855072</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C24">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1874,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K24">
-        <v>0.1827956989247312</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1898,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1906,13 +1924,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4888888888888889</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1924,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K25">
-        <v>0.176706827309237</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1948,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>205</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1956,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4838709677419355</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1974,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K26">
-        <v>0.1507936507936508</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1998,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>107</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2006,13 +2024,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4736842105263158</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2024,19 +2042,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K27">
-        <v>0.144</v>
+        <v>0.1454864154250657</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2048,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>107</v>
+        <v>975</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2077,28 +2095,28 @@
         <v>31</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K28">
-        <v>0.1412280701754386</v>
+        <v>0.144</v>
       </c>
       <c r="L28">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>979</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2106,13 +2124,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4216867469879518</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2124,31 +2142,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K29">
-        <v>0.07337662337662337</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="L29">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1427</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2156,13 +2174,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4186046511627907</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2174,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K30">
-        <v>0.07219251336898395</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2198,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2206,13 +2224,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4081632653061225</v>
+        <v>0.3886255924170616</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2224,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K31">
-        <v>0.06685236768802229</v>
+        <v>0.07219251336898395</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2248,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2256,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4047619047619048</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2274,31 +2292,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K32">
-        <v>0.05836575875486381</v>
+        <v>0.07082521117608837</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>242</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2306,13 +2324,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2324,31 +2342,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K33">
-        <v>0.04629629629629629</v>
+        <v>0.06640625</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>309</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2356,13 +2374,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3846153846153846</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2374,31 +2392,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K34">
-        <v>0.04539385847797063</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N34">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>715</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2406,13 +2424,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3833333333333334</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2424,31 +2442,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K35">
-        <v>0.02272727272727273</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>688</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2456,13 +2474,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3791469194312796</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2474,7 +2492,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>131</v>
+        <v>40</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K36">
+        <v>0.04556962025316456</v>
+      </c>
+      <c r="L36">
+        <v>18</v>
+      </c>
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>0.95</v>
+      </c>
+      <c r="O36">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2482,7 +2524,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3650793650793651</v>
+        <v>0.359375</v>
       </c>
       <c r="C37">
         <v>23</v>
@@ -2500,7 +2542,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K37">
+        <v>0.044</v>
+      </c>
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2508,13 +2574,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.359375</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C38">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2526,7 +2592,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38">
+        <v>0.02275960170697013</v>
+      </c>
+      <c r="L38">
+        <v>16</v>
+      </c>
+      <c r="M38">
+        <v>18</v>
+      </c>
+      <c r="N38">
+        <v>0.89</v>
+      </c>
+      <c r="O38">
+        <v>0.11</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2534,13 +2624,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3543307086614173</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C39">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2552,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2560,13 +2650,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3518518518518519</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2578,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2586,13 +2676,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.34375</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2604,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2612,13 +2702,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3333333333333333</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2630,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2638,13 +2728,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3148148148148148</v>
+        <v>0.3125</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2656,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2664,13 +2754,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3146067415730337</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2682,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2690,13 +2780,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3090909090909091</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2708,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2716,13 +2806,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2950819672131147</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2734,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2742,13 +2832,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2722772277227723</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C47">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2760,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>147</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2768,13 +2858,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2678571428571428</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2786,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2794,13 +2884,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2537313432835821</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2812,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2820,13 +2910,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2463768115942029</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2838,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>52</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2846,13 +2936,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2422680412371134</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C51">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2864,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>147</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2872,13 +2962,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2346938775510204</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2898,13 +2988,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2197802197802198</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2916,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>71</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2924,13 +3014,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2051282051282051</v>
+        <v>0.17</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2942,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>93</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2950,13 +3040,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1992753623188406</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D55">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2968,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>221</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2976,13 +3066,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1851851851851852</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2994,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3002,13 +3092,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.180379746835443</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C57">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3020,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>259</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3028,25 +3118,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1779661016949153</v>
+        <v>0.150521609538003</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>97</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3054,13 +3144,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1752577319587629</v>
+        <v>0.15</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3072,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3080,25 +3170,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1664190193164933</v>
+        <v>0.1498559077809798</v>
       </c>
       <c r="C60">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="D60">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="E60">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F60">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>561</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3106,13 +3196,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1571428571428571</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3124,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>118</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3132,25 +3222,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.155</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C62">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>169</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3158,13 +3248,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1424050632911392</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C63">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D63">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3176,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3184,13 +3274,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1401869158878505</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3202,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3210,13 +3300,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1343612334801762</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C65">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3228,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>393</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3236,13 +3326,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1337579617834395</v>
+        <v>0.125</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3254,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3262,25 +3352,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1268011527377522</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="C67">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E67">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>303</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3288,13 +3378,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.125</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C68">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3306,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3314,25 +3404,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1123595505617977</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C69">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>237</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3340,13 +3430,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1099476439790576</v>
+        <v>0.1167400881057269</v>
       </c>
       <c r="C70">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3358,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>170</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3366,7 +3456,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1092896174863388</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C71">
         <v>20</v>
@@ -3384,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3392,13 +3482,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1085714285714286</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C72">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D72">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3410,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3418,13 +3508,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1038961038961039</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3436,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3444,25 +3534,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08516483516483517</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="C74">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>333</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3470,25 +3560,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.08258928571428571</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C75">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D75">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>411</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3496,25 +3586,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.078125</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C76">
         <v>15</v>
       </c>
       <c r="D76">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3522,13 +3612,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07605633802816901</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="C77">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3540,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3548,25 +3638,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07107438016528926</v>
+        <v>0.07572383073496659</v>
       </c>
       <c r="C78">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D78">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E78">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>562</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3574,13 +3664,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06810035842293907</v>
+        <v>0.06765676567656766</v>
       </c>
       <c r="C79">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E79">
         <v>0.05</v>
@@ -3592,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>260</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3600,25 +3690,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04447268106734435</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="C80">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D80">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>752</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3626,25 +3716,103 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.04287901990811639</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C81">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F81">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>625</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.04336734693877551</v>
+      </c>
+      <c r="C82">
+        <v>34</v>
+      </c>
+      <c r="D82">
+        <v>44</v>
+      </c>
+      <c r="E82">
+        <v>0.23</v>
+      </c>
+      <c r="F82">
+        <v>0.77</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.03488372093023256</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>19</v>
+      </c>
+      <c r="E83">
+        <v>0.21</v>
+      </c>
+      <c r="F83">
+        <v>0.79</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.03211009174311927</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>22</v>
+      </c>
+      <c r="E84">
+        <v>0.05</v>
+      </c>
+      <c r="F84">
+        <v>0.95</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
